--- a/TestCase/Testcase.xlsx
+++ b/TestCase/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janas\Documents\workspace-spring-tool-suite-4-4.8.1.RELEASE\atc\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5550BB-5E13-4241-9531-D19976A84EF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C312DA-B3ED-4345-AB55-6F5D8352D242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="267">
   <si>
     <t>Failure Message</t>
   </si>
@@ -69,9 +69,6 @@
     <t>TC1</t>
   </si>
   <si>
-    <t>Test Case1</t>
-  </si>
-  <si>
     <t>WAIT</t>
   </si>
   <si>
@@ -186,147 +183,75 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Test Case2</t>
-  </si>
-  <si>
     <t>TC3</t>
   </si>
   <si>
-    <t>Test Case3</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
-    <t>Test Case4</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
-    <t>Test Case5</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
-    <t>Test Case6</t>
-  </si>
-  <si>
     <t>TC7</t>
   </si>
   <si>
-    <t>Test Case7</t>
-  </si>
-  <si>
     <t>TC8</t>
   </si>
   <si>
-    <t>Test Case8</t>
-  </si>
-  <si>
     <t>TC9</t>
   </si>
   <si>
-    <t>Test Case9</t>
-  </si>
-  <si>
     <t>TC10</t>
   </si>
   <si>
-    <t>Test Case10</t>
-  </si>
-  <si>
     <t>TC11</t>
   </si>
   <si>
-    <t>Test Case11</t>
-  </si>
-  <si>
     <t>TC12</t>
   </si>
   <si>
-    <t>Test Case12</t>
-  </si>
-  <si>
     <t>TC13</t>
   </si>
   <si>
-    <t>Test Case13</t>
-  </si>
-  <si>
     <t>TC14</t>
   </si>
   <si>
-    <t>Test Case14</t>
-  </si>
-  <si>
     <t>TC15</t>
   </si>
   <si>
-    <t>Test Case15</t>
-  </si>
-  <si>
     <t>TC16</t>
   </si>
   <si>
-    <t>Test Case16</t>
-  </si>
-  <si>
     <t>TC17</t>
   </si>
   <si>
-    <t>Test Case17</t>
-  </si>
-  <si>
     <t>TC18</t>
   </si>
   <si>
-    <t>Test Case18</t>
-  </si>
-  <si>
     <t>TC19</t>
   </si>
   <si>
-    <t>Test Case19</t>
-  </si>
-  <si>
     <t>TC20</t>
   </si>
   <si>
-    <t>Test Case20</t>
-  </si>
-  <si>
     <t>TC21</t>
   </si>
   <si>
-    <t>Test Case21</t>
-  </si>
-  <si>
     <t>TC22</t>
   </si>
   <si>
-    <t>Test Case22</t>
-  </si>
-  <si>
     <t>TC23</t>
   </si>
   <si>
-    <t>Test Case23</t>
-  </si>
-  <si>
     <t>TC24</t>
   </si>
   <si>
-    <t>Test Case24</t>
-  </si>
-  <si>
     <t>TC25</t>
   </si>
   <si>
-    <t>Test Case25</t>
-  </si>
-  <si>
     <t>janasupratik843@gmail.com</t>
   </si>
   <si>
@@ -342,15 +267,9 @@
     <t>TC26</t>
   </si>
   <si>
-    <t>Test Case26</t>
-  </si>
-  <si>
     <t>TC27</t>
   </si>
   <si>
-    <t>Test Case27</t>
-  </si>
-  <si>
     <t>ACTION</t>
   </si>
   <si>
@@ -360,15 +279,9 @@
     <t>TC28</t>
   </si>
   <si>
-    <t>Test Case28</t>
-  </si>
-  <si>
     <t>TC29</t>
   </si>
   <si>
-    <t>Test Case29</t>
-  </si>
-  <si>
     <t>//a[@title='List']</t>
   </si>
   <si>
@@ -390,132 +303,69 @@
     <t>TC30</t>
   </si>
   <si>
-    <t>Test Case30</t>
-  </si>
-  <si>
     <t>TC31</t>
   </si>
   <si>
-    <t>Test Case31</t>
-  </si>
-  <si>
     <t>TC32</t>
   </si>
   <si>
-    <t>Test Case32</t>
-  </si>
-  <si>
     <t>TC33</t>
   </si>
   <si>
-    <t>Test Case33</t>
-  </si>
-  <si>
     <t>TC34</t>
   </si>
   <si>
-    <t>Test Case34</t>
-  </si>
-  <si>
     <t>//*[@id="columns"]/div[1]/a[4]</t>
   </si>
   <si>
     <t>TC35</t>
   </si>
   <si>
-    <t>Test Case35</t>
-  </si>
-  <si>
     <t>TC36</t>
   </si>
   <si>
-    <t>Test Case36</t>
-  </si>
-  <si>
     <t>TC37</t>
   </si>
   <si>
-    <t>Test Case37</t>
-  </si>
-  <si>
     <t>TC38</t>
   </si>
   <si>
-    <t>Test Case38</t>
-  </si>
-  <si>
     <t>TC39</t>
   </si>
   <si>
-    <t>Test Case39</t>
-  </si>
-  <si>
     <t>TC40</t>
   </si>
   <si>
-    <t>Test Case40</t>
-  </si>
-  <si>
     <t>TC41</t>
   </si>
   <si>
-    <t>Test Case41</t>
-  </si>
-  <si>
     <t>TC42</t>
   </si>
   <si>
-    <t>Test Case42</t>
-  </si>
-  <si>
     <t>TC43</t>
   </si>
   <si>
-    <t>Test Case43</t>
-  </si>
-  <si>
     <t>TC44</t>
   </si>
   <si>
-    <t>Test Case44</t>
-  </si>
-  <si>
     <t>TC45</t>
   </si>
   <si>
-    <t>Test Case45</t>
-  </si>
-  <si>
     <t>TC46</t>
   </si>
   <si>
-    <t>Test Case46</t>
-  </si>
-  <si>
     <t>TC47</t>
   </si>
   <si>
-    <t>Test Case47</t>
-  </si>
-  <si>
     <t>TC48</t>
   </si>
   <si>
-    <t>Test Case48</t>
-  </si>
-  <si>
     <t>TC49</t>
   </si>
   <si>
-    <t>Test Case49</t>
-  </si>
-  <si>
     <t>TC50</t>
   </si>
   <si>
-    <t>Test Case50</t>
-  </si>
-  <si>
     <t>//*[@id="center_column"]/ul/li[1]/div/div/div[3]/div/div[2]/a[2]</t>
   </si>
   <si>
@@ -570,66 +420,33 @@
     <t>TC51</t>
   </si>
   <si>
-    <t>Test Case51</t>
-  </si>
-  <si>
     <t>TC52</t>
   </si>
   <si>
-    <t>Test Case52</t>
-  </si>
-  <si>
     <t>TC53</t>
   </si>
   <si>
-    <t>Test Case53</t>
-  </si>
-  <si>
     <t>TC54</t>
   </si>
   <si>
-    <t>Test Case54</t>
-  </si>
-  <si>
     <t>TC55</t>
   </si>
   <si>
-    <t>Test Case55</t>
-  </si>
-  <si>
     <t>TC56</t>
   </si>
   <si>
-    <t>Test Case56</t>
-  </si>
-  <si>
     <t>TC57</t>
   </si>
   <si>
-    <t>Test Case57</t>
-  </si>
-  <si>
     <t>TC58</t>
   </si>
   <si>
-    <t>Test Case58</t>
-  </si>
-  <si>
     <t>TC59</t>
   </si>
   <si>
-    <t>Test Case59</t>
-  </si>
-  <si>
     <t>TC60</t>
   </si>
   <si>
-    <t>Test Case60</t>
-  </si>
-  <si>
-    <t>Test Case61</t>
-  </si>
-  <si>
     <t>TC61</t>
   </si>
   <si>
@@ -642,13 +459,373 @@
     <t>TC62</t>
   </si>
   <si>
-    <t>Test Case62</t>
-  </si>
-  <si>
     <t>TC63</t>
   </si>
   <si>
-    <t>Test Case63</t>
+    <t>Scenarion 1</t>
+  </si>
+  <si>
+    <t>Scenarion 2</t>
+  </si>
+  <si>
+    <t>Scenarion 3</t>
+  </si>
+  <si>
+    <t>Scenarion 4</t>
+  </si>
+  <si>
+    <t>Scenarion 5</t>
+  </si>
+  <si>
+    <t>Scenarion 6</t>
+  </si>
+  <si>
+    <t>Scenarion 7</t>
+  </si>
+  <si>
+    <t>Scenarion 8</t>
+  </si>
+  <si>
+    <t>Scenarion 9</t>
+  </si>
+  <si>
+    <t>Scenarion 10</t>
+  </si>
+  <si>
+    <t>Scenarion 11</t>
+  </si>
+  <si>
+    <t>Scenarion 12</t>
+  </si>
+  <si>
+    <t>Scenarion 13</t>
+  </si>
+  <si>
+    <t>Scenarion 14</t>
+  </si>
+  <si>
+    <t>Scenarion 15</t>
+  </si>
+  <si>
+    <t>Scenarion 16</t>
+  </si>
+  <si>
+    <t>Scenarion 17</t>
+  </si>
+  <si>
+    <t>Scenarion 18</t>
+  </si>
+  <si>
+    <t>Scenarion 19</t>
+  </si>
+  <si>
+    <t>Scenarion 20</t>
+  </si>
+  <si>
+    <t>Scenarion 21</t>
+  </si>
+  <si>
+    <t>Scenarion 22</t>
+  </si>
+  <si>
+    <t>Scenarion 23</t>
+  </si>
+  <si>
+    <t>Scenarion 24</t>
+  </si>
+  <si>
+    <t>Scenarion 25</t>
+  </si>
+  <si>
+    <t>Scenarion 26</t>
+  </si>
+  <si>
+    <t>Scenarion 27</t>
+  </si>
+  <si>
+    <t>Scenarion 28</t>
+  </si>
+  <si>
+    <t>Scenarion 29</t>
+  </si>
+  <si>
+    <t>Scenarion 30</t>
+  </si>
+  <si>
+    <t>Scenarion 31</t>
+  </si>
+  <si>
+    <t>Scenarion 32</t>
+  </si>
+  <si>
+    <t>Scenarion 33</t>
+  </si>
+  <si>
+    <t>Scenarion 34</t>
+  </si>
+  <si>
+    <t>Scenarion 35</t>
+  </si>
+  <si>
+    <t>Scenarion 36</t>
+  </si>
+  <si>
+    <t>Scenarion 37</t>
+  </si>
+  <si>
+    <t>Scenarion 38</t>
+  </si>
+  <si>
+    <t>Scenarion 39</t>
+  </si>
+  <si>
+    <t>Scenarion 40</t>
+  </si>
+  <si>
+    <t>Scenarion 41</t>
+  </si>
+  <si>
+    <t>Scenarion 42</t>
+  </si>
+  <si>
+    <t>Scenarion 43</t>
+  </si>
+  <si>
+    <t>Scenarion 44</t>
+  </si>
+  <si>
+    <t>Scenarion 45</t>
+  </si>
+  <si>
+    <t>Scenarion 46</t>
+  </si>
+  <si>
+    <t>Scenarion 47</t>
+  </si>
+  <si>
+    <t>Scenarion 48</t>
+  </si>
+  <si>
+    <t>Scenarion 49</t>
+  </si>
+  <si>
+    <t>Scenarion 50</t>
+  </si>
+  <si>
+    <t>Scenarion 51</t>
+  </si>
+  <si>
+    <t>Scenarion 52</t>
+  </si>
+  <si>
+    <t>Scenarion 53</t>
+  </si>
+  <si>
+    <t>Scenarion 54</t>
+  </si>
+  <si>
+    <t>Scenarion 55</t>
+  </si>
+  <si>
+    <t>Scenarion 56</t>
+  </si>
+  <si>
+    <t>Scenarion 57</t>
+  </si>
+  <si>
+    <t>Scenarion 58</t>
+  </si>
+  <si>
+    <t>Scenarion 59</t>
+  </si>
+  <si>
+    <t>Scenarion 60</t>
+  </si>
+  <si>
+    <t>Scenarion 61</t>
+  </si>
+  <si>
+    <t>Scenarion 62</t>
+  </si>
+  <si>
+    <t>Scenarion 63</t>
+  </si>
+  <si>
+    <t>Initiating Login Operation</t>
+  </si>
+  <si>
+    <t>Wait for Login Form to appear</t>
+  </si>
+  <si>
+    <t>Entering Email Id</t>
+  </si>
+  <si>
+    <t>Entering Password</t>
+  </si>
+  <si>
+    <t>Clicking on Login button</t>
+  </si>
+  <si>
+    <t>Initiating Add Neww Address Operation by Clicking on My Address Button</t>
+  </si>
+  <si>
+    <t>Waiting for My Address Button to Appear</t>
+  </si>
+  <si>
+    <t>Waiting for Add an Address title</t>
+  </si>
+  <si>
+    <t>Clicking on Add an Address button</t>
+  </si>
+  <si>
+    <t>Waiting For Add new address form</t>
+  </si>
+  <si>
+    <t>Adding Firstname</t>
+  </si>
+  <si>
+    <t>Adding Lastname</t>
+  </si>
+  <si>
+    <t>Adding Company</t>
+  </si>
+  <si>
+    <t>Adding Address 1</t>
+  </si>
+  <si>
+    <t>Adding Address 2</t>
+  </si>
+  <si>
+    <t>Adding City</t>
+  </si>
+  <si>
+    <t>Selecting State</t>
+  </si>
+  <si>
+    <t>Adding Postcode</t>
+  </si>
+  <si>
+    <t>Selecting Country</t>
+  </si>
+  <si>
+    <t>Adding Phone Number</t>
+  </si>
+  <si>
+    <t>Adding Mobile Number</t>
+  </si>
+  <si>
+    <t>Adding Additional Details</t>
+  </si>
+  <si>
+    <t>Adding Alias Name</t>
+  </si>
+  <si>
+    <t>Clicking on Submit Address button</t>
+  </si>
+  <si>
+    <t>Hovering Over Women Tab</t>
+  </si>
+  <si>
+    <t>Clicking on Summer Dresses option</t>
+  </si>
+  <si>
+    <t>Switching to List View</t>
+  </si>
+  <si>
+    <t>Clicking on Product 1</t>
+  </si>
+  <si>
+    <t>Adding Quantity</t>
+  </si>
+  <si>
+    <t>Selecting Size</t>
+  </si>
+  <si>
+    <t>Selecting Color</t>
+  </si>
+  <si>
+    <t>Adding the Product to Cart</t>
+  </si>
+  <si>
+    <t>Clicking on Continue Shopping button</t>
+  </si>
+  <si>
+    <t>Returning back to Main Page</t>
+  </si>
+  <si>
+    <t>Clicking on Product 2</t>
+  </si>
+  <si>
+    <t>Clicking on Product 3</t>
+  </si>
+  <si>
+    <t>Clicking on Proceed to checkout button</t>
+  </si>
+  <si>
+    <t>Verifying Order Summary and Clicking on Proceed to Checkout button</t>
+  </si>
+  <si>
+    <t>Verifying Billing &amp; Shipping and Clicking on Proceed to Checkout button</t>
+  </si>
+  <si>
+    <t>Accepting Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Clicking on Proceed to Checkout button</t>
+  </si>
+  <si>
+    <t>Clicking on Pay by bank wire button</t>
+  </si>
+  <si>
+    <t>Clicking on I confirm my order</t>
+  </si>
+  <si>
+    <t>Clicking on View my customer account option</t>
+  </si>
+  <si>
+    <t>Clicking on Order history and details button</t>
+  </si>
+  <si>
+    <t>Clicking on Order Details button</t>
+  </si>
+  <si>
+    <t>Waiting for Order Details</t>
+  </si>
+  <si>
+    <t>Scrolling Down to View Order Details</t>
+  </si>
+  <si>
+    <t>Prepairing for Screenshot</t>
+  </si>
+  <si>
+    <t>Taking Screenshot</t>
+  </si>
+  <si>
+    <t>Clicking on Signout link</t>
+  </si>
+  <si>
+    <t>Completing Test Case Execution</t>
+  </si>
+  <si>
+    <t>alert("Success!! Test Execution Ended Successfully");</t>
+  </si>
+  <si>
+    <t>Waiting for Completion</t>
+  </si>
+  <si>
+    <t>End of Test</t>
+  </si>
+  <si>
+    <t>TC64</t>
+  </si>
+  <si>
+    <t>Scenarion 64</t>
+  </si>
+  <si>
+    <t>TC65</t>
+  </si>
+  <si>
+    <t>Scenarion 65</t>
   </si>
 </sst>
 </file>
@@ -983,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,1529 +1217,1575 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>12345</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
         <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
       </c>
       <c r="G21">
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>1234567890</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1234567890</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" t="s">
-        <v>163</v>
-      </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="G31">
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="G38">
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="G45">
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="E50" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="G59">
         <v>3000</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="G60" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="G61">
         <v>3000</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
         <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="G64">
         <v>3000</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65" t="s">
+        <v>260</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>262</v>
+      </c>
+      <c r="G66">
+        <v>3000</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/Testcase.xlsx
+++ b/TestCase/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janas\Documents\workspace-spring-tool-suite-4-4.8.1.RELEASE\atc\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C312DA-B3ED-4345-AB55-6F5D8352D242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D7A86-F83A-40B7-B800-7A2371400F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1162,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>

--- a/TestCase/Testcase.xlsx
+++ b/TestCase/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janas\Documents\workspace-spring-tool-suite-4-4.8.1.RELEASE\atc\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D7A86-F83A-40B7-B800-7A2371400F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA9468B-1A7F-426E-95E3-A0F7F10E0C97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="275">
   <si>
     <t>Failure Message</t>
   </si>
@@ -826,6 +826,30 @@
   </si>
   <si>
     <t>Scenarion 65</t>
+  </si>
+  <si>
+    <t>ALERTACTION</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>TC66</t>
+  </si>
+  <si>
+    <t>Scenarion 66</t>
+  </si>
+  <si>
+    <t>Closing Alert</t>
+  </si>
+  <si>
+    <t>Displaying Alert</t>
+  </si>
+  <si>
+    <t>TC67</t>
+  </si>
+  <si>
+    <t>Scenarion 67</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,7 +2800,7 @@
         <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G66">
         <v>3000</v>
@@ -2785,6 +2809,52 @@
         <v>16</v>
       </c>
       <c r="J66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" t="s">
+        <v>271</v>
+      </c>
+      <c r="G67" t="s">
+        <v>268</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>262</v>
+      </c>
+      <c r="G68">
+        <v>3000</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
         <v>17</v>
       </c>
     </row>
